--- a/biology/Zoologie/Brève_à_ailes_bleues/Brève_à_ailes_bleues.xlsx
+++ b/biology/Zoologie/Brève_à_ailes_bleues/Brève_à_ailes_bleues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_%C3%A0_ailes_bleues</t>
+          <t>Brève_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pitta moluccensis
 La Brève à ailes bleues (Pitta moluccensis) est une espèce de passereau appartenant à la famille des Pittidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_%C3%A0_ailes_bleues</t>
+          <t>Brève_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau à corps arrondi et au bec court mesure jusqu'à 20 cm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau à corps arrondi et au bec court mesure jusqu'à 20 cm de long.
 Il mange des insectes dans la litière des forêts.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_%C3%A0_ailes_bleues</t>
+          <t>Brève_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_%C3%A0_ailes_bleues</t>
+          <t>Brève_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La brève à ailes bleues se trouve en Inde, en Asie du Sud-Est et en Chine
 </t>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_%C3%A0_ailes_bleues</t>
+          <t>Brève_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans les forêts tropicales denses pendant la nidification mais il passe l'hiver dans les broussailles des côtes maritimes. 
 </t>
